--- a/Resumenes-compras-ventas/DICIEMBRE2024.xlsx
+++ b/Resumenes-compras-ventas/DICIEMBRE2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMITH\Desktop\Boletas\Resumenes-compras-ventas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AFE394-6FFD-41A9-BD2A-92C047E92370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61692F8-8420-4530-846B-262B3FFBCE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E2FA93AC-A9ED-49AE-9201-3130AD7C9D51}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <t>PUESTO</t>
   </si>
   <si>
-    <t>VENTAS Y COMPRAS DEL MES DICIEMBRE 2025</t>
+    <t>VENTAS Y COMPRAS DEL MES DICIEMBRE 2024</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
